--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t xml:space="preserve">Apresentação de projetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exame 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exame 2</t>
   </si>
   <si>
     <t xml:space="preserve">Professor</t>
@@ -306,9 +312,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -454,7 +462,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,6 +525,18 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -632,10 +652,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -935,6 +955,28 @@
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="18" t="n">
+        <v>0.479166666666667</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="n">
+        <v>43501</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="18" t="n">
+        <v>0.479166666666667</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -992,7 +1034,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
   </cols>
   <sheetData>
@@ -1000,377 +1042,377 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>40</v>
+      <c r="E1" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
-        <v>42</v>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
-        <v>42</v>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="20" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>64</v>
+      <c r="A12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
-        <v>42</v>
+        <v>67</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>67</v>
+      <c r="A13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22" t="s">
-        <v>42</v>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>69</v>
+      <c r="A14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>73</v>
+      <c r="A15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="22" t="s">
-        <v>47</v>
+      <c r="E15" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>75</v>
+      <c r="A16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22" t="s">
-        <v>47</v>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22" t="s">
-        <v>47</v>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22" t="s">
-        <v>42</v>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22" t="s">
-        <v>47</v>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>82</v>
+      <c r="A21" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22" t="s">
-        <v>47</v>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22" t="s">
-        <v>47</v>
+        <v>86</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>51</v>
+      <c r="A23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>51</v>
+      <c r="A25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>90</v>
+      <c r="A26" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22" t="s">
-        <v>47</v>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>92</v>
+      <c r="A27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22" t="s">
-        <v>42</v>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -312,11 +312,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -527,7 +526,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,7 +534,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,7 +654,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -958,7 +957,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
-        <v>43467</v>
+        <v>43473</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>40</v>
@@ -975,7 +974,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="18" t="n">
-        <v>0.479166666666667</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -461,7 +461,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,7 +482,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -498,8 +498,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -507,6 +511,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,7 +666,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,7 +721,7 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="7"/>
@@ -719,7 +731,7 @@
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,17 +742,17 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +763,7 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="7"/>
@@ -761,7 +773,7 @@
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,7 +784,7 @@
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="7"/>
@@ -782,7 +794,7 @@
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +802,7 @@
         <f aca="false">A10+7</f>
         <v>43395</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -800,7 +812,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="6"/>
@@ -811,28 +823,28 @@
         <f aca="false">A12+7</f>
         <v>43402</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <f aca="false">A14+7</f>
         <v>43409</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -842,7 +854,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="6"/>
@@ -853,7 +865,7 @@
         <f aca="false">A16+7</f>
         <v>43416</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -863,7 +875,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="6"/>
@@ -874,7 +886,7 @@
         <f aca="false">A18+7</f>
         <v>43423</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -884,7 +896,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="6"/>
@@ -895,7 +907,7 @@
         <f aca="false">A20+7</f>
         <v>43430</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -905,7 +917,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="6"/>
@@ -916,7 +928,7 @@
         <f aca="false">A22+7</f>
         <v>43437</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -928,7 +940,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="6"/>
@@ -939,41 +951,41 @@
         <f aca="false">A24+7</f>
         <v>43444</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="19" t="n">
         <v>43473</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="18" t="n">
+      <c r="C29" s="21" t="n">
         <v>0.479166666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="n">
+      <c r="A30" s="19" t="n">
         <v>43501</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="18" t="n">
+      <c r="C30" s="21" t="n">
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -1033,7 +1045,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
   </cols>
   <sheetData>
@@ -1041,376 +1053,376 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="26" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="26" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="28" t="s">
         <v>44</v>
       </c>
     </row>

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">CRF/structured perceptron</t>
   </si>
   <si>
-    <t xml:space="preserve">HMMs (ou IE genérico?)</t>
+    <t xml:space="preserve">HMMs + IE genérico</t>
   </si>
   <si>
     <t xml:space="preserve">Avaliação para IR</t>
@@ -805,7 +805,7 @@
       <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="7"/>
@@ -815,7 +815,7 @@
       <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -514,19 +514,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,7 +666,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -802,7 +802,7 @@
         <f aca="false">A10+7</f>
         <v>43395</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -812,7 +812,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="10"/>
@@ -823,28 +823,28 @@
         <f aca="false">A12+7</f>
         <v>43402</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <f aca="false">A14+7</f>
         <v>43409</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -854,7 +854,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="6"/>
@@ -865,7 +865,7 @@
         <f aca="false">A16+7</f>
         <v>43416</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -875,7 +875,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="6"/>
@@ -886,7 +886,7 @@
         <f aca="false">A18+7</f>
         <v>43423</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -896,7 +896,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="6"/>
@@ -907,7 +907,7 @@
         <f aca="false">A20+7</f>
         <v>43430</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -917,7 +917,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="6"/>
@@ -928,7 +928,7 @@
         <f aca="false">A22+7</f>
         <v>43437</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -951,7 +951,7 @@
         <f aca="false">A24+7</f>
         <v>43444</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -961,7 +961,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="18"/>
@@ -1240,7 +1240,7 @@
       <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="28" t="s">
@@ -1255,7 +1255,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="28" t="s">
         <v>49</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="C24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="28" t="s">
@@ -1395,7 +1395,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -71,139 +71,159 @@
     <t xml:space="preserve">Clustering de Documentos (K-Means, HAC, LSI)</t>
   </si>
   <si>
-    <t xml:space="preserve">IE</t>
+    <t xml:space="preserve">IE + HMMs</t>
   </si>
   <si>
     <t xml:space="preserve">Classification + Clustering</t>
   </si>
   <si>
+    <t xml:space="preserve">HMMs + CRF/Structured Perceptron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliação para IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMMs + IE genérico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliação para classificação/IE e clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERIADO 1-nov (qui)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish previous labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web IR + Link Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PageRank + HITS + Web Spam</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CRF/Structured perceptron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + Evaluation (?)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning to Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PageRank and Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Crawling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesquisa por Similaridade Eficiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processamento Eficiente de Consultas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similarity Search + Crawling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construção Índices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processamento distribuído para IR e IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoio ao projecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega do projecto (7-dez, sex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentação de projetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exame 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exame 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Setembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Setembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 Setembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelos IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to Python + Text Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pável</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 Setembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classificação (KNN e Naive Bayes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 Outubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERIADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosine Similarity + VSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 Outubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clustering de Documentos (K-Means)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Outubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressões regulares e regras para IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification (NN e NB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 Outubro</t>
+  </si>
+  <si>
     <t xml:space="preserve">HMMs para IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRF/structured perceptron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMMs + IE genérico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliação para IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERIADO 1-nov (qui)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRF/Structured perceptron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliação para classificação/IE e clustering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link analysis e PageRank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning to Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageRank and Links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Crawling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisa por Similaridade Eficiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processamento Eficiente de Consultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similarity Search + Crawling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construção Índices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processamento distribuído para IR e IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoio ao projecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega do projecto (7-dez, sex)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apresentação de projetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exame 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exame 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 Setembro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 Setembro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 Setembro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelos IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to Python + Text Processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pável</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 Setembro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classificação (KNN e Naive Bayes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 Outubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERIADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosine Similarity + VSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 Outubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clustering de Documentos (K-Means)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Outubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expressões regulares e regras para IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classification (NN e NB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Outubro</t>
   </si>
   <si>
     <t xml:space="preserve">19 Outubro</t>
@@ -378,7 +398,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +411,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -412,6 +438,13 @@
       <right/>
       <top/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -461,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,6 +511,34 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,47 +547,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,7 +615,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,19 +635,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,15 +655,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,7 +683,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -693,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>43360</v>
       </c>
@@ -705,36 +790,36 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="11" t="n">
         <f aca="false">A2+7</f>
         <v>43367</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <f aca="false">A4+7</f>
         <v>43374</v>
@@ -742,41 +827,41 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="11" t="n">
         <f aca="false">A6+7</f>
         <v>43381</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <f aca="false">A8+7</f>
         <v>43388</v>
@@ -784,208 +869,206 @@
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+    <row r="11" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="11" t="n">
         <f aca="false">A10+7</f>
         <v>43395</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <f aca="false">A12+7</f>
         <v>43402</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="13" t="s">
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="11" t="n">
         <f aca="false">A14+7</f>
         <v>43409</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <f aca="false">A16+7</f>
         <v>43416</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13" t="s">
-        <v>28</v>
-      </c>
+    <row r="19" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="11" t="n">
         <f aca="false">A18+7</f>
         <v>43423</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="27"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <f aca="false">A20+7</f>
         <v>43430</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9"/>
+      <c r="B23" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="11" t="n">
         <f aca="false">A22+7</f>
         <v>43437</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <f aca="false">A24+7</f>
         <v>43444</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="31" t="n">
+        <v>43473</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="n">
-        <v>43473</v>
-      </c>
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="33" t="n">
+        <v>0.479166666666667</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="31" t="n">
+        <v>43501</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="21" t="n">
-        <v>0.479166666666667</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="n">
-        <v>43501</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="21" t="n">
+      <c r="C30" s="33" t="n">
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -1045,7 +1128,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
   </cols>
   <sheetData>
@@ -1053,377 +1136,377 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C10" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="30" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28" t="s">
-        <v>49</v>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28" t="s">
-        <v>44</v>
+      <c r="C27" s="27"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -101,27 +101,7 @@
     <t xml:space="preserve">PageRank + HITS + Web Spam</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CRF/Structured perceptron</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> + Evaluation (?)</t>
-    </r>
+    <t xml:space="preserve">CRF/Structured perceptron + Evaluation</t>
   </si>
   <si>
     <t xml:space="preserve">Learning to Rank</t>
@@ -587,11 +567,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,6 +581,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -751,7 +731,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,7 +919,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="13"/>
@@ -950,18 +930,18 @@
         <f aca="false">A16+7</f>
         <v>43416</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,20 +949,20 @@
         <f aca="false">A18+7</f>
         <v>43423</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
     </row>
     <row r="22" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,7 +980,7 @@
     </row>
     <row r="23" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
@@ -1011,13 +991,13 @@
         <f aca="false">A22+7</f>
         <v>43437</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1026,8 +1006,8 @@
       <c r="B25" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
@@ -1044,7 +1024,7 @@
     </row>
     <row r="27" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="30"/>
@@ -1156,7 +1136,7 @@
       <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="39"/>
@@ -1171,7 +1151,7 @@
       <c r="B3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40" t="s">
         <v>43</v>
@@ -1184,7 +1164,7 @@
       <c r="B4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="39"/>
@@ -1199,7 +1179,7 @@
       <c r="B5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="39"/>
       <c r="E5" s="40" t="s">
         <v>48</v>
@@ -1212,7 +1192,7 @@
       <c r="B6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="39"/>
@@ -1225,7 +1205,7 @@
       <c r="B7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="39"/>
       <c r="E7" s="40" t="s">
         <v>43</v>
@@ -1238,7 +1218,7 @@
       <c r="B8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="39"/>
@@ -1253,7 +1233,7 @@
       <c r="B9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="39"/>
       <c r="E9" s="40" t="s">
         <v>43</v>
@@ -1266,7 +1246,7 @@
       <c r="B10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="39"/>
@@ -1279,7 +1259,7 @@
       <c r="B11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="39"/>
       <c r="E11" s="40" t="s">
         <v>48</v>
@@ -1292,7 +1272,7 @@
       <c r="B12" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="39"/>
@@ -1307,7 +1287,7 @@
       <c r="B13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="39"/>
       <c r="E13" s="40" t="s">
         <v>43</v>
@@ -1320,7 +1300,7 @@
       <c r="B14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="43" t="s">
@@ -1337,7 +1317,7 @@
       <c r="B15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="43"/>
       <c r="E15" s="40" t="s">
         <v>48</v>
@@ -1350,7 +1330,7 @@
       <c r="B16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="39"/>
@@ -1365,7 +1345,7 @@
       <c r="B17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="39"/>
       <c r="E17" s="40" t="s">
         <v>48</v>
@@ -1378,7 +1358,7 @@
       <c r="B18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="39"/>
@@ -1393,7 +1373,7 @@
       <c r="B19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="39"/>
       <c r="E19" s="40" t="s">
         <v>43</v>
@@ -1406,7 +1386,7 @@
       <c r="B20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="39"/>
@@ -1421,7 +1401,7 @@
       <c r="B21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40" t="s">
         <v>48</v>
@@ -1434,7 +1414,7 @@
       <c r="B22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="39"/>
@@ -1449,7 +1429,7 @@
       <c r="B23" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
     </row>
@@ -1460,7 +1440,7 @@
       <c r="B24" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="43" t="s">
@@ -1477,7 +1457,7 @@
       <c r="B25" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="43"/>
       <c r="E25" s="40"/>
     </row>
@@ -1488,7 +1468,7 @@
       <c r="B26" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="39"/>
@@ -1503,7 +1483,7 @@
       <c r="B27" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="39"/>
       <c r="E27" s="40" t="s">
         <v>43</v>

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -113,19 +113,19 @@
     <t xml:space="preserve">Web Crawling</t>
   </si>
   <si>
+    <t xml:space="preserve">Pesquisa por Similaridade Eficiente</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2R</t>
   </si>
   <si>
-    <t xml:space="preserve">Pesquisa por Similaridade Eficiente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Processamento Eficiente de Consultas</t>
   </si>
   <si>
+    <t xml:space="preserve">Construção Índices</t>
+  </si>
+  <si>
     <t xml:space="preserve">Similarity Search + Crawling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construção Índices</t>
   </si>
   <si>
     <t xml:space="preserve">Processamento distribuído para IR e IE</t>
@@ -731,7 +731,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -940,7 +940,9 @@
     </row>
     <row r="19" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="7"/>
     </row>
@@ -950,17 +952,17 @@
         <v>43423</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="14"/>
@@ -971,17 +973,17 @@
         <v>43430</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
       <c r="B23" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -992,7 +994,7 @@
         <v>43437</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>36</v>
@@ -1356,7 +1358,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>28</v>
@@ -1438,7 +1440,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>72</v>

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -119,10 +119,10 @@
     <t xml:space="preserve">L2R</t>
   </si>
   <si>
+    <t xml:space="preserve">Construção Índices</t>
+  </si>
+  <si>
     <t xml:space="preserve">Processamento Eficiente de Consultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construção Índices</t>
   </si>
   <si>
     <t xml:space="preserve">Similarity Search + Crawling</t>
@@ -474,7 +474,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,6 +589,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -731,7 +739,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -993,10 +1001,10 @@
         <f aca="false">A22+7</f>
         <v>43437</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -1005,11 +1013,11 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
@@ -1019,7 +1027,7 @@
       <c r="B26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="32" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="7"/>
@@ -1029,28 +1037,28 @@
       <c r="B27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="n">
+      <c r="A29" s="33" t="n">
         <v>43473</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="33" t="n">
+      <c r="C29" s="35" t="n">
         <v>0.479166666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="n">
+      <c r="A30" s="33" t="n">
         <v>43501</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="33" t="n">
+      <c r="C30" s="35" t="n">
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -1110,7 +1118,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
   </cols>
   <sheetData>
@@ -1118,376 +1126,376 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="26"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="26"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="40" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="26"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>33</v>
+      <c r="B18" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>32</v>
+      <c r="B19" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="40" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="26"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="40"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="40" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="40" t="s">
         <v>94</v>
       </c>
       <c r="C27" s="26"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="42" t="s">
         <v>43</v>
       </c>
     </row>

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -474,7 +474,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -571,40 +571,36 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -739,7 +735,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -948,7 +944,7 @@
     </row>
     <row r="19" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="19"/>
@@ -959,20 +955,20 @@
         <f aca="false">A18+7</f>
         <v>43423</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="14"/>
     </row>
     <row r="22" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,7 +976,7 @@
         <f aca="false">A20+7</f>
         <v>43430</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -990,7 +986,7 @@
     </row>
     <row r="23" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="6"/>
@@ -1001,64 +997,64 @@
         <f aca="false">A22+7</f>
         <v>43437</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15"/>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <f aca="false">A24+7</f>
         <v>43444</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="n">
+      <c r="A29" s="32" t="n">
         <v>43473</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="35" t="n">
+      <c r="C29" s="34" t="n">
         <v>0.479166666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="n">
+      <c r="A30" s="32" t="n">
         <v>43501</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="35" t="n">
+      <c r="C30" s="34" t="n">
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -1118,7 +1114,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
   </cols>
   <sheetData>
@@ -1126,376 +1122,376 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="42" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42" t="s">
+      <c r="D20" s="40"/>
+      <c r="E20" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42" t="s">
+      <c r="D26" s="40"/>
+      <c r="E26" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41" t="s">
         <v>43</v>
       </c>
     </row>

--- a/planeamento/Planeamento-Detalhado.xlsx
+++ b/planeamento/Planeamento-Detalhado.xlsx
@@ -474,7 +474,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -568,10 +568,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,7 +731,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -955,7 +951,7 @@
         <f aca="false">A18+7</f>
         <v>43423</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -997,64 +993,64 @@
         <f aca="false">A22+7</f>
         <v>43437</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <f aca="false">A24+7</f>
         <v>43444</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="32" t="n">
+      <c r="A29" s="31" t="n">
         <v>43473</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="34" t="n">
+      <c r="C29" s="33" t="n">
         <v>0.479166666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="32" t="n">
+      <c r="A30" s="31" t="n">
         <v>43501</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="34" t="n">
+      <c r="C30" s="33" t="n">
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -1114,7 +1110,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
   </cols>
   <sheetData>
@@ -1122,376 +1118,376 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="41" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="41"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
